--- a/newpycode/product_bulk_import/dataheavy_product_template.xlsx
+++ b/newpycode/product_bulk_import/dataheavy_product_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiagangzhang/workspace/myownsync/newpycode/product bulk import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiagangzhang/workspace/myownsync/newpycode/product_bulk_import/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -155,9 +155,6 @@
     <t>h-B7KO9SIYM0A123</t>
   </si>
   <si>
-    <t>qapbrandVXQImIrFTIQRTvT</t>
-  </si>
-  <si>
     <t>CN</t>
   </si>
   <si>
@@ -180,6 +177,10 @@
   </si>
   <si>
     <t>剪裁合体，纤薄轮廓；经过特殊处理，舒展无皱；传统门襟；彈力桶箍;可機洗;進口</t>
+  </si>
+  <si>
+    <t>KATESPADEDEMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -505,7 +506,7 @@
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,61 +648,61 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s">
         <v>45</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>46</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AC2" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AD2" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>49</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>50</v>
       </c>
       <c r="AK2">
         <v>0</v>

--- a/newpycode/product_bulk_import/dataheavy_product_template.xlsx
+++ b/newpycode/product_bulk_import/dataheavy_product_template.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="SKU" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -506,7 +506,7 @@
   <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
